--- a/excel/hermite.xlsx
+++ b/excel/hermite.xlsx
@@ -1,13 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Hamilton\excel\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABFB7BEA-A357-4C3C-BAAA-7EB522550616}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Rf_0.5_0-3_ndiv" sheetId="1" r:id="rId1"/>
+    <sheet name="Rf_1.0_0-5_ndiv" sheetId="2" r:id="rId2"/>
+    <sheet name="均布_8-64" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -18,14 +26,34 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="2">
+  <si>
+    <t>L2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>log h</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -53,7 +81,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -330,46 +358,188 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="2" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2">
-        <v>-1.6762150721335474</v>
+        <v>-1.1889281562837823</v>
       </c>
       <c r="B2">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
+        <v>-0.3010299956639812</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3">
-        <v>-1.5253250838852832</v>
+        <v>-1.4343033567670498</v>
       </c>
       <c r="B3">
-        <v>1.3010299956639813</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
+        <v>-0.6020599913279624</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4">
-        <v>-1.7277713537479946</v>
+        <v>-2.1598940908293636</v>
       </c>
       <c r="B4">
-        <v>1.6020599913279623</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
+        <v>-0.90308998699194354</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5">
-        <v>-2.2660561105033987</v>
+        <v>-2.4576382808876875</v>
       </c>
       <c r="B5">
-        <v>1.9030899869919435</v>
+        <v>-1.2041199826559248</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EFB8B4ED-CA2B-4FF7-A4FD-24DCD5C6E34D}">
+  <dimension ref="A1:B7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>-1.2468107487018909</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>-1.8240714426933009</v>
+      </c>
+      <c r="B3">
+        <v>-0.3010299956639812</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>-1.8275180778293596</v>
+      </c>
+      <c r="B4">
+        <v>-0.6020599913279624</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>-1.9101472850855354</v>
+      </c>
+      <c r="B5">
+        <v>-0.90308998699194354</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>-1.8963733958319866</v>
+      </c>
+      <c r="B6">
+        <v>-1.2041199826559248</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>-2.7560307616075108</v>
+      </c>
+      <c r="B7">
+        <v>-1.505149978319906</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{419C347B-F2A6-41B1-853E-A2C1B693DDA6}">
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:B5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>-1.0494487661463006</v>
+      </c>
+      <c r="B2">
+        <v>-0.3010299956639812</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>-2.1794272530147967</v>
+      </c>
+      <c r="B3">
+        <v>-0.6020599913279624</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>-2.4605493592058876</v>
+      </c>
+      <c r="B4">
+        <v>-0.90308998699194354</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>-4.6748800317510222</v>
+      </c>
+      <c r="B5">
+        <v>-1.2041199826559248</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/excel/hermite.xlsx
+++ b/excel/hermite.xlsx
@@ -8,14 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Hamilton\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABFB7BEA-A357-4C3C-BAAA-7EB522550616}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1707E2F1-0B40-42BD-87F8-B641F1F00646}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Rf_0.5_0-3_ndiv" sheetId="1" r:id="rId1"/>
     <sheet name="Rf_1.0_0-5_ndiv" sheetId="2" r:id="rId2"/>
     <sheet name="均布_8-64" sheetId="3" r:id="rId3"/>
+    <sheet name="均布_4-32" sheetId="4" r:id="rId4"/>
+    <sheet name="非均布_4-32" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -27,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="4">
   <si>
     <t>L2</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -35,6 +37,13 @@
   <si>
     <t>log h</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>没稀疏矩阵</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>稀疏矩阵</t>
   </si>
 </sst>
 </file>
@@ -359,15 +368,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:B1"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -375,7 +384,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>-1.1889281562837823</v>
       </c>
@@ -383,7 +392,7 @@
         <v>-0.3010299956639812</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>-1.4343033567670498</v>
       </c>
@@ -391,7 +400,7 @@
         <v>-0.6020599913279624</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>-2.1598940908293636</v>
       </c>
@@ -399,12 +408,17 @@
         <v>-0.90308998699194354</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>-2.4576382808876875</v>
       </c>
       <c r="B5">
         <v>-1.2041199826559248</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D6" t="s">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -416,15 +430,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EFB8B4ED-CA2B-4FF7-A4FD-24DCD5C6E34D}">
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:B1"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -432,7 +446,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>-1.2468107487018909</v>
       </c>
@@ -440,7 +454,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>-1.8240714426933009</v>
       </c>
@@ -448,7 +462,7 @@
         <v>-0.3010299956639812</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>-1.8275180778293596</v>
       </c>
@@ -456,7 +470,7 @@
         <v>-0.6020599913279624</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>-1.9101472850855354</v>
       </c>
@@ -464,7 +478,7 @@
         <v>-0.90308998699194354</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>-1.8963733958319866</v>
       </c>
@@ -472,12 +486,17 @@
         <v>-1.2041199826559248</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>-2.7560307616075108</v>
       </c>
       <c r="B7">
         <v>-1.505149978319906</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D9" t="s">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -489,7 +508,131 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{419C347B-F2A6-41B1-853E-A2C1B693DDA6}">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>-1.0494487661463006</v>
+      </c>
+      <c r="B2">
+        <v>-0.3010299956639812</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>-2.1794272530147967</v>
+      </c>
+      <c r="B3">
+        <v>-0.6020599913279624</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>-2.4605493592058876</v>
+      </c>
+      <c r="B4">
+        <v>-0.90308998699194354</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>-4.6748800317510222</v>
+      </c>
+      <c r="B5">
+        <v>-1.2041199826559248</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8316BB8-363F-4E0A-A57F-BFF2D7C476E6}">
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H29" sqref="H29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>-1.1956701414984761</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>-0.3010299956639812</v>
+      </c>
+      <c r="B3">
+        <v>-2.2284522734936933</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>-0.6020599913279624</v>
+      </c>
+      <c r="B4">
+        <v>-3.1102696874317961</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>-0.90308998699194354</v>
+      </c>
+      <c r="B5">
+        <v>-3.9115840246842124</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D7" t="s">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E47ECC37-7A3F-4357-8213-EE0A6DCE942F}">
+  <dimension ref="A2:D7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2:B5"/>
@@ -497,49 +640,45 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2">
-        <v>-1.0494487661463006</v>
-      </c>
       <c r="B2">
+        <v>-1.2468093649752947</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3">
         <v>-0.3010299956639812</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3">
-        <v>-2.1794272530147967</v>
-      </c>
       <c r="B3">
+        <v>-1.8240714546936463</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4">
         <v>-0.6020599913279624</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4">
-        <v>-2.4605493592058876</v>
-      </c>
       <c r="B4">
+        <v>-1.8275181024379106</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5">
         <v>-0.90308998699194354</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5">
-        <v>-4.6748800317510222</v>
-      </c>
       <c r="B5">
-        <v>-1.2041199826559248</v>
+        <v>-1.9101471428866734</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D7" t="s">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/excel/hermite.xlsx
+++ b/excel/hermite.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Hamilton\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1707E2F1-0B40-42BD-87F8-B641F1F00646}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B6EAF03-972C-4194-8C7A-37BB9180F4EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7815" yWindow="1350" windowWidth="18285" windowHeight="12375" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Rf_0.5_0-3_ndiv" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="5">
   <si>
     <t>L2</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -44,6 +44,10 @@
   </si>
   <si>
     <t>稀疏矩阵</t>
+  </si>
+  <si>
+    <t>H1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -376,7 +380,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -384,7 +388,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" dyDescent="0.2">
       <c r="A2">
         <v>-1.1889281562837823</v>
       </c>
@@ -392,7 +396,7 @@
         <v>-0.3010299956639812</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" dyDescent="0.2">
       <c r="A3">
         <v>-1.4343033567670498</v>
       </c>
@@ -400,7 +404,7 @@
         <v>-0.6020599913279624</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" dyDescent="0.2">
       <c r="A4">
         <v>-2.1598940908293636</v>
       </c>
@@ -408,7 +412,7 @@
         <v>-0.90308998699194354</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" dyDescent="0.2">
       <c r="A5">
         <v>-2.4576382808876875</v>
       </c>
@@ -416,7 +420,7 @@
         <v>-1.2041199826559248</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" dyDescent="0.2">
       <c r="D6" t="s">
         <v>3</v>
       </c>
@@ -438,7 +442,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -446,7 +450,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" dyDescent="0.2">
       <c r="A2">
         <v>-1.2468107487018909</v>
       </c>
@@ -454,7 +458,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" dyDescent="0.2">
       <c r="A3">
         <v>-1.8240714426933009</v>
       </c>
@@ -462,7 +466,7 @@
         <v>-0.3010299956639812</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" dyDescent="0.2">
       <c r="A4">
         <v>-1.8275180778293596</v>
       </c>
@@ -470,7 +474,7 @@
         <v>-0.6020599913279624</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" dyDescent="0.2">
       <c r="A5">
         <v>-1.9101472850855354</v>
       </c>
@@ -478,7 +482,7 @@
         <v>-0.90308998699194354</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" dyDescent="0.2">
       <c r="A6">
         <v>-1.8963733958319866</v>
       </c>
@@ -486,7 +490,7 @@
         <v>-1.2041199826559248</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" dyDescent="0.2">
       <c r="A7">
         <v>-2.7560307616075108</v>
       </c>
@@ -494,7 +498,7 @@
         <v>-1.505149978319906</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4" dyDescent="0.2">
       <c r="D9" t="s">
         <v>3</v>
       </c>
@@ -510,53 +514,68 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{419C347B-F2A6-41B1-853E-A2C1B693DDA6}">
   <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" dyDescent="0.2">
       <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:4" dyDescent="0.2">
       <c r="A2">
-        <v>-1.0494487661463006</v>
+        <v>-0.3010299956639812</v>
       </c>
       <c r="B2">
-        <v>-0.3010299956639812</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+        <v>-0.96405228766741424</v>
+      </c>
+      <c r="C2">
+        <v>-2.2065312144585993</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3">
-        <v>-2.1794272530147967</v>
+        <v>-0.6020599913279624</v>
       </c>
       <c r="B3">
-        <v>-0.6020599913279624</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+        <v>-1.5091375018182482</v>
+      </c>
+      <c r="C3">
+        <v>-3.0481583515671464</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4">
-        <v>-2.4605493592058876</v>
+        <v>-0.9030899869919435</v>
       </c>
       <c r="B4">
-        <v>-0.90308998699194354</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+        <v>-1.9820211514864106</v>
+      </c>
+      <c r="C4">
+        <v>-3.8251512239752445</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5">
-        <v>-4.6748800317510222</v>
+        <v>-1.2041199826559248</v>
       </c>
       <c r="B5">
-        <v>-1.2041199826559248</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+        <v>-2.4379912743252716</v>
+      </c>
+      <c r="C5">
+        <v>-4.583310279735629</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" dyDescent="0.2">
       <c r="D8" t="s">
         <v>3</v>
       </c>
@@ -578,7 +597,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -586,39 +605,39 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" dyDescent="0.2">
       <c r="A2">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>-1.1956701414984761</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+        <v>-1.3305670619669649</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" dyDescent="0.2">
       <c r="A3">
         <v>-0.3010299956639812</v>
       </c>
       <c r="B3">
-        <v>-2.2284522734936933</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+        <v>-2.2065312144588227</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" dyDescent="0.2">
       <c r="A4">
         <v>-0.6020599913279624</v>
       </c>
       <c r="B4">
-        <v>-3.1102696874317961</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+        <v>-3.0481583515663124</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" dyDescent="0.2">
       <c r="A5">
         <v>-0.90308998699194354</v>
       </c>
       <c r="B5">
-        <v>-3.9115840246842124</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+        <v>-3.8251512239799439</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" dyDescent="0.2">
       <c r="D7" t="s">
         <v>2</v>
       </c>
@@ -634,13 +653,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E47ECC37-7A3F-4357-8213-EE0A6DCE942F}">
   <dimension ref="A2:D7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2:B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" dyDescent="0.2">
       <c r="A2">
         <v>0</v>
       </c>
@@ -648,7 +667,7 @@
         <v>-1.2468093649752947</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" dyDescent="0.2">
       <c r="A3">
         <v>-0.3010299956639812</v>
       </c>
@@ -656,7 +675,7 @@
         <v>-1.8240714546936463</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" dyDescent="0.2">
       <c r="A4">
         <v>-0.6020599913279624</v>
       </c>
@@ -664,7 +683,7 @@
         <v>-1.8275181024379106</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" dyDescent="0.2">
       <c r="A5">
         <v>-0.90308998699194354</v>
       </c>
@@ -672,7 +691,7 @@
         <v>-1.9101471428866734</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" dyDescent="0.2">
       <c r="D7" t="s">
         <v>2</v>
       </c>
